--- a/dataset/score/ontimittaraguveera.xlsx
+++ b/dataset/score/ontimittaraguveera.xlsx
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.7894736842105263</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="G2" t="n">
         <v>0.75</v>
@@ -529,7 +529,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="J2" t="n">
         <v>0.25</v>
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G5" t="n">
         <v>0.75</v>
@@ -673,7 +673,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.8425</v>
+        <v>0.9285714285714285</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
@@ -721,10 +721,10 @@
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9625</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="J6" t="n">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="K6" t="n">
         <v>1</v>
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.8975</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -865,7 +865,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J9" t="n">
         <v>0.5</v>
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.8973684210526315</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G10" t="n">
         <v>0.75</v>
@@ -913,7 +913,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J10" t="n">
         <v>0.75</v>
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.8947368421052632</v>
+        <v>0.8857142857142858</v>
       </c>
       <c r="G11" t="n">
         <v>0.75</v>
@@ -961,7 +961,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9736842105263158</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J11" t="n">
         <v>0.75</v>
@@ -1000,7 +1000,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.8973684210526315</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G12" t="n">
         <v>0.75</v>
@@ -1009,7 +1009,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J12" t="n">
         <v>0.75</v>
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.8975</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -1153,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J15" t="n">
         <v>0.5</v>
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.8975</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -1201,7 +1201,7 @@
         <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J16" t="n">
         <v>0.5</v>
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1252,7 +1252,7 @@
         <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K17" t="n">
         <v>1</v>
@@ -1384,7 +1384,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.8949999999999999</v>
+        <v>0.8357142857142857</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1393,10 +1393,10 @@
         <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>0.975</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J20" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="K20" t="n">
         <v>1</v>
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G21" t="n">
         <v>0.75</v>
@@ -1441,7 +1441,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J21" t="n">
         <v>1</v>
@@ -1528,7 +1528,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1540,7 +1540,7 @@
         <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K23" t="n">
         <v>1</v>
@@ -1576,7 +1576,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.8975</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1585,10 +1585,10 @@
         <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J24" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K24" t="n">
         <v>1</v>
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1684,7 +1684,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K26" t="n">
         <v>1</v>
@@ -1720,7 +1720,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.9475</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1729,10 +1729,10 @@
         <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J27" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K27" t="n">
         <v>1</v>
@@ -1768,7 +1768,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.9447368421052632</v>
+        <v>0.8857142857142858</v>
       </c>
       <c r="G28" t="n">
         <v>0.75</v>
@@ -1777,10 +1777,10 @@
         <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>0.9736842105263158</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J28" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K28" t="n">
         <v>1</v>
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.8973684210526315</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G31" t="n">
         <v>0.75</v>
@@ -1921,7 +1921,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J31" t="n">
         <v>0.75</v>
@@ -2056,7 +2056,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.8949999999999999</v>
+        <v>0.8857142857142858</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2065,7 +2065,7 @@
         <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>0.975</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J34" t="n">
         <v>0.5</v>
@@ -2104,7 +2104,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.9974999999999999</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2113,7 +2113,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J35" t="n">
         <v>1</v>
@@ -2248,7 +2248,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.8875</v>
+        <v>0.9142857142857143</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2257,10 +2257,10 @@
         <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>0.9375</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="J38" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K38" t="n">
         <v>1</v>
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.8925000000000001</v>
+        <v>0.8285714285714285</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2305,10 +2305,10 @@
         <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>0.9625</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="J39" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="K39" t="n">
         <v>1</v>
@@ -2344,7 +2344,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2356,7 +2356,7 @@
         <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K40" t="n">
         <v>1</v>
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.9475</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2401,7 +2401,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J41" t="n">
         <v>0.75</v>
@@ -2488,7 +2488,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2500,7 +2500,7 @@
         <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K43" t="n">
         <v>1</v>
@@ -2536,7 +2536,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2548,7 +2548,7 @@
         <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K44" t="n">
         <v>1</v>
@@ -2584,7 +2584,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.945</v>
+        <v>0.9357142857142857</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2593,7 +2593,7 @@
         <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>0.975</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J45" t="n">
         <v>0.75</v>
@@ -2680,7 +2680,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.8473684210526315</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G47" t="n">
         <v>0.75</v>
@@ -2689,10 +2689,10 @@
         <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J47" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K47" t="n">
         <v>1</v>
@@ -2776,7 +2776,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.53</v>
+        <v>0.4542857142857143</v>
       </c>
       <c r="G49" t="n">
         <v>0.75</v>
@@ -2785,7 +2785,7 @@
         <v>0.95</v>
       </c>
       <c r="I49" t="n">
-        <v>0.45</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="J49" t="n">
         <v>0.25</v>
@@ -2824,7 +2824,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G50" t="n">
         <v>0.75</v>
@@ -2833,7 +2833,7 @@
         <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J50" t="n">
         <v>1</v>
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0.8447368421052632</v>
+        <v>0.8357142857142857</v>
       </c>
       <c r="G51" t="n">
         <v>0.75</v>
@@ -2881,7 +2881,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="n">
-        <v>0.9736842105263158</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J51" t="n">
         <v>0.5</v>
@@ -2920,7 +2920,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0.8973684210526315</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G52" t="n">
         <v>0.75</v>
@@ -2929,7 +2929,7 @@
         <v>1</v>
       </c>
       <c r="I52" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J52" t="n">
         <v>0.75</v>
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0.8973684210526315</v>
+        <v>0.8428571428571429</v>
       </c>
       <c r="G54" t="n">
         <v>0.75</v>
@@ -3025,10 +3025,10 @@
         <v>1</v>
       </c>
       <c r="I54" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J54" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K54" t="n">
         <v>1</v>
@@ -3064,7 +3064,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0.7973684210526316</v>
+        <v>0.7928571428571429</v>
       </c>
       <c r="G55" t="n">
         <v>0.75</v>
@@ -3073,7 +3073,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J55" t="n">
         <v>0.25</v>
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>0.8947368421052632</v>
+        <v>0.8857142857142858</v>
       </c>
       <c r="G56" t="n">
         <v>0.75</v>
@@ -3121,7 +3121,7 @@
         <v>1</v>
       </c>
       <c r="I56" t="n">
-        <v>0.9736842105263158</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J56" t="n">
         <v>0.75</v>
@@ -3160,7 +3160,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>0.8975</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3169,10 +3169,10 @@
         <v>1</v>
       </c>
       <c r="I57" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J57" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K57" t="n">
         <v>1</v>
@@ -3208,7 +3208,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3220,7 +3220,7 @@
         <v>1</v>
       </c>
       <c r="J58" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K58" t="n">
         <v>1</v>
@@ -3304,7 +3304,7 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0.8975</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3313,10 +3313,10 @@
         <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J60" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K60" t="n">
         <v>1</v>
@@ -3352,7 +3352,7 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0.9949999999999999</v>
+        <v>0.9357142857142857</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3361,10 +3361,10 @@
         <v>1</v>
       </c>
       <c r="I61" t="n">
-        <v>0.975</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J61" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K61" t="n">
         <v>1</v>
@@ -3400,7 +3400,7 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>0.8973684210526315</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G62" t="n">
         <v>0.75</v>
@@ -3409,7 +3409,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J62" t="n">
         <v>0.75</v>
@@ -3448,7 +3448,7 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>0.9425000000000001</v>
+        <v>0.8785714285714284</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3457,10 +3457,10 @@
         <v>1</v>
       </c>
       <c r="I63" t="n">
-        <v>0.9625</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="J63" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K63" t="n">
         <v>1</v>
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="G64" t="n">
         <v>0.75</v>
@@ -3508,7 +3508,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K64" t="n">
         <v>1</v>
@@ -3592,7 +3592,7 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0.9974999999999999</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3601,7 +3601,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J66" t="n">
         <v>1</v>
@@ -3640,7 +3640,7 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>0.8973684210526315</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G67" t="n">
         <v>0.75</v>
@@ -3649,10 +3649,10 @@
         <v>1</v>
       </c>
       <c r="I67" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J67" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K67" t="n">
         <v>1</v>
@@ -3688,7 +3688,7 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>0.9475</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3697,10 +3697,10 @@
         <v>1</v>
       </c>
       <c r="I68" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J68" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K68" t="n">
         <v>1</v>
@@ -3736,7 +3736,7 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>0.8975</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3745,10 +3745,10 @@
         <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J69" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K69" t="n">
         <v>1</v>
@@ -3832,7 +3832,7 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3844,7 +3844,7 @@
         <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K71" t="n">
         <v>1</v>
@@ -3880,7 +3880,7 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>0.9475</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3889,7 +3889,7 @@
         <v>1</v>
       </c>
       <c r="I72" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J72" t="n">
         <v>0.75</v>
@@ -3928,7 +3928,7 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3940,7 +3940,7 @@
         <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="K73" t="n">
         <v>1</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>0.8473684210526315</v>
+        <v>0.8428571428571429</v>
       </c>
       <c r="G74" t="n">
         <v>0.75</v>
@@ -3985,7 +3985,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J74" t="n">
         <v>0.75</v>
@@ -4024,7 +4024,7 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>0.8947368421052632</v>
+        <v>0.8857142857142858</v>
       </c>
       <c r="G75" t="n">
         <v>0.75</v>
@@ -4033,7 +4033,7 @@
         <v>1</v>
       </c>
       <c r="I75" t="n">
-        <v>0.9736842105263158</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J75" t="n">
         <v>1</v>
@@ -4120,7 +4120,7 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.8949999999999999</v>
+        <v>0.9357142857142857</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -4129,10 +4129,10 @@
         <v>1</v>
       </c>
       <c r="I77" t="n">
-        <v>0.975</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J77" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K77" t="n">
         <v>1</v>
@@ -4216,7 +4216,7 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4228,7 +4228,7 @@
         <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K79" t="n">
         <v>1</v>
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.89</v>
+        <v>0.8714285714285716</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4321,7 +4321,7 @@
         <v>1</v>
       </c>
       <c r="I81" t="n">
-        <v>0.95</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="J81" t="n">
         <v>0.5</v>
@@ -4360,7 +4360,7 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0.75</v>
+        <v>0.85</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4372,7 +4372,7 @@
         <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K82" t="n">
         <v>0.75</v>
@@ -4456,7 +4456,7 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4468,7 +4468,7 @@
         <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K84" t="n">
         <v>1</v>
@@ -4504,7 +4504,7 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>0.9475</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4513,10 +4513,10 @@
         <v>1</v>
       </c>
       <c r="I85" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J85" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K85" t="n">
         <v>1</v>
@@ -4600,7 +4600,7 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G87" t="n">
         <v>0.75</v>
@@ -4609,7 +4609,7 @@
         <v>1</v>
       </c>
       <c r="I87" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J87" t="n">
         <v>1</v>
@@ -4648,7 +4648,7 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>0.7947368421052632</v>
+        <v>0.7857142857142858</v>
       </c>
       <c r="G88" t="n">
         <v>0.75</v>
@@ -4657,7 +4657,7 @@
         <v>1</v>
       </c>
       <c r="I88" t="n">
-        <v>0.9736842105263158</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J88" t="n">
         <v>0.25</v>
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>0.8947368421052632</v>
+        <v>0.8857142857142858</v>
       </c>
       <c r="G89" t="n">
         <v>0.75</v>
@@ -4705,7 +4705,7 @@
         <v>1</v>
       </c>
       <c r="I89" t="n">
-        <v>0.9736842105263158</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J89" t="n">
         <v>0.75</v>
@@ -4792,7 +4792,7 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0.8949999999999999</v>
+        <v>0.8857142857142858</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4801,7 +4801,7 @@
         <v>1</v>
       </c>
       <c r="I91" t="n">
-        <v>0.975</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J91" t="n">
         <v>0.5</v>
@@ -4840,7 +4840,7 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>0.8474999999999999</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4849,10 +4849,10 @@
         <v>1</v>
       </c>
       <c r="I92" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J92" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K92" t="n">
         <v>1</v>
@@ -4888,7 +4888,7 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>0.8975</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4897,7 +4897,7 @@
         <v>1</v>
       </c>
       <c r="I93" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J93" t="n">
         <v>0.5</v>
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>0.9447368421052632</v>
+        <v>0.8857142857142858</v>
       </c>
       <c r="G94" t="n">
         <v>0.75</v>
@@ -4945,10 +4945,10 @@
         <v>1</v>
       </c>
       <c r="I94" t="n">
-        <v>0.9736842105263158</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J94" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K94" t="n">
         <v>1</v>
@@ -5032,7 +5032,7 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>0.9949999999999999</v>
+        <v>0.9857142857142858</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -5041,7 +5041,7 @@
         <v>1</v>
       </c>
       <c r="I96" t="n">
-        <v>0.975</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J96" t="n">
         <v>1</v>
@@ -5080,7 +5080,7 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>0.9949999999999999</v>
+        <v>0.8857142857142858</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -5089,10 +5089,10 @@
         <v>1</v>
       </c>
       <c r="I97" t="n">
-        <v>0.975</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J97" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K97" t="n">
         <v>1</v>
@@ -5224,7 +5224,7 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>0.6275000000000001</v>
+        <v>0.5542857142857143</v>
       </c>
       <c r="G100" t="n">
         <v>0.75</v>
@@ -5233,7 +5233,7 @@
         <v>0.95</v>
       </c>
       <c r="I100" t="n">
-        <v>0.4375</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="J100" t="n">
         <v>0.5</v>
@@ -5272,7 +5272,7 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>0.8949999999999999</v>
+        <v>0.8857142857142858</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -5281,7 +5281,7 @@
         <v>1</v>
       </c>
       <c r="I101" t="n">
-        <v>0.975</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J101" t="n">
         <v>0.5</v>
@@ -5320,7 +5320,7 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>0.9475</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5329,7 +5329,7 @@
         <v>1</v>
       </c>
       <c r="I102" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J102" t="n">
         <v>0.75</v>
@@ -5368,7 +5368,7 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -5380,7 +5380,7 @@
         <v>1</v>
       </c>
       <c r="J103" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K103" t="n">
         <v>1</v>
@@ -5464,7 +5464,7 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5476,7 +5476,7 @@
         <v>1</v>
       </c>
       <c r="J105" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K105" t="n">
         <v>1</v>
@@ -5512,7 +5512,7 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G106" t="n">
         <v>0.75</v>
@@ -5521,7 +5521,7 @@
         <v>1</v>
       </c>
       <c r="I106" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J106" t="n">
         <v>1</v>
@@ -5560,7 +5560,7 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>0.8975</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5569,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="I107" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J107" t="n">
         <v>0.5</v>
@@ -5656,7 +5656,7 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>0.8925000000000001</v>
+        <v>0.8785714285714284</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5665,7 +5665,7 @@
         <v>1</v>
       </c>
       <c r="I109" t="n">
-        <v>0.9625</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="J109" t="n">
         <v>0.5</v>
@@ -5704,7 +5704,7 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>0.8975</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5713,7 +5713,7 @@
         <v>1</v>
       </c>
       <c r="I110" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J110" t="n">
         <v>0.5</v>
@@ -5752,7 +5752,7 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>0.8421052631578947</v>
+        <v>0.7785714285714286</v>
       </c>
       <c r="G111" t="n">
         <v>0.75</v>
@@ -5761,10 +5761,10 @@
         <v>1</v>
       </c>
       <c r="I111" t="n">
-        <v>0.9605263157894737</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="J111" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="K111" t="n">
         <v>1</v>
@@ -5848,7 +5848,7 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="G113" t="n">
         <v>0.75</v>
@@ -5860,7 +5860,7 @@
         <v>1</v>
       </c>
       <c r="J113" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K113" t="n">
         <v>1</v>
@@ -5944,7 +5944,7 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5956,7 +5956,7 @@
         <v>1</v>
       </c>
       <c r="J115" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K115" t="n">
         <v>0.75</v>
@@ -5992,7 +5992,7 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>0.8447368421052632</v>
+        <v>0.8857142857142858</v>
       </c>
       <c r="G116" t="n">
         <v>0.75</v>
@@ -6001,10 +6001,10 @@
         <v>1</v>
       </c>
       <c r="I116" t="n">
-        <v>0.9736842105263158</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J116" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K116" t="n">
         <v>0.75</v>
@@ -6232,7 +6232,7 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>0.9375</v>
+        <v>0.9142857142857143</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -6241,7 +6241,7 @@
         <v>1</v>
       </c>
       <c r="I121" t="n">
-        <v>0.9375</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="J121" t="n">
         <v>0.75</v>

--- a/dataset/score/ontimittaraguveera.xlsx
+++ b/dataset/score/ontimittaraguveera.xlsx
@@ -466,12 +466,12 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>n_aksharalu_score</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>n_paadalu_score</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>n_aksharalu_score</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.7714285714285715</v>
+        <v>0.9214285714285715</v>
       </c>
       <c r="G2" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -532,7 +532,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="J2" t="n">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
@@ -568,10 +568,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="G3" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -619,16 +619,16 @@
         <v>0.95</v>
       </c>
       <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
         <v>0.75</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1</v>
       </c>
       <c r="K4" t="n">
         <v>1</v>
@@ -664,10 +664,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.9428571428571428</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G5" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -760,10 +760,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -808,10 +808,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="G8" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.8928571428571429</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -868,7 +868,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
         <v>1</v>
@@ -904,10 +904,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.8928571428571429</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G10" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
@@ -952,10 +952,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.8857142857142858</v>
+        <v>0.9357142857142857</v>
       </c>
       <c r="G11" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
@@ -1000,10 +1000,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.8928571428571429</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G12" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
@@ -1012,7 +1012,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J12" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
         <v>1</v>
@@ -1048,10 +1048,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="G13" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
@@ -1096,19 +1096,19 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
         <v>0.75</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.5</v>
       </c>
       <c r="K14" t="n">
         <v>1</v>
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.8928571428571429</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -1156,7 +1156,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J15" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
         <v>1</v>
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.8928571428571429</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -1204,7 +1204,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J16" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K16" t="n">
         <v>1</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1300,7 +1300,7 @@
         <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K18" t="n">
         <v>1</v>
@@ -1336,7 +1336,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -1348,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K19" t="n">
         <v>1</v>
@@ -1384,7 +1384,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.8357142857142857</v>
+        <v>0.9857142857142858</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1396,7 +1396,7 @@
         <v>0.9285714285714286</v>
       </c>
       <c r="J20" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
         <v>1</v>
@@ -1435,7 +1435,7 @@
         <v>0.9428571428571428</v>
       </c>
       <c r="G21" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
@@ -1444,7 +1444,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K21" t="n">
         <v>1</v>
@@ -1480,10 +1480,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
@@ -1492,7 +1492,7 @@
         <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K22" t="n">
         <v>1</v>
@@ -1528,7 +1528,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1540,7 +1540,7 @@
         <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K23" t="n">
         <v>1</v>
@@ -1576,7 +1576,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.9428571428571428</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1588,7 +1588,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J24" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K24" t="n">
         <v>1</v>
@@ -1624,7 +1624,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1636,7 +1636,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K25" t="n">
         <v>1</v>
@@ -1768,10 +1768,10 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.8857142857142858</v>
+        <v>0.9857142857142858</v>
       </c>
       <c r="G28" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
         <v>1</v>
@@ -1780,7 +1780,7 @@
         <v>0.9285714285714286</v>
       </c>
       <c r="J28" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K28" t="n">
         <v>1</v>
@@ -1819,7 +1819,7 @@
         <v>0.9</v>
       </c>
       <c r="G29" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
         <v>1</v>
@@ -1828,7 +1828,7 @@
         <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K29" t="n">
         <v>1</v>
@@ -1864,10 +1864,10 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
         <v>1</v>
@@ -1912,10 +1912,10 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.8928571428571429</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G31" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
         <v>1</v>
@@ -2008,7 +2008,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -2020,7 +2020,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K33" t="n">
         <v>1</v>
@@ -2056,7 +2056,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.8857142857142858</v>
+        <v>0.8357142857142857</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2068,7 +2068,7 @@
         <v>0.9285714285714286</v>
       </c>
       <c r="J34" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="K34" t="n">
         <v>1</v>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2164,7 +2164,7 @@
         <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K36" t="n">
         <v>1</v>
@@ -2200,7 +2200,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2212,7 +2212,7 @@
         <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K37" t="n">
         <v>1</v>
@@ -2248,7 +2248,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.9142857142857143</v>
+        <v>0.9642857142857142</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2260,7 +2260,7 @@
         <v>0.8214285714285714</v>
       </c>
       <c r="J38" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K38" t="n">
         <v>1</v>
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.8285714285714285</v>
+        <v>0.9285714285714285</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2308,7 +2308,7 @@
         <v>0.8928571428571429</v>
       </c>
       <c r="J39" t="n">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="K39" t="n">
         <v>1</v>
@@ -2344,7 +2344,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2356,7 +2356,7 @@
         <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K40" t="n">
         <v>1</v>
@@ -2584,7 +2584,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.9357142857142857</v>
+        <v>0.9857142857142858</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2596,7 +2596,7 @@
         <v>0.9285714285714286</v>
       </c>
       <c r="J45" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K45" t="n">
         <v>1</v>
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2644,7 +2644,7 @@
         <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K46" t="n">
         <v>1</v>
@@ -2680,10 +2680,10 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.8928571428571429</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G47" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
         <v>1</v>
@@ -2728,7 +2728,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2740,7 +2740,7 @@
         <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K48" t="n">
         <v>1</v>
@@ -2776,13 +2776,13 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.4542857142857143</v>
+        <v>0.5042857142857142</v>
       </c>
       <c r="G49" t="n">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="H49" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>0.07142857142857142</v>
@@ -2824,10 +2824,10 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0.9428571428571428</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G50" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
         <v>1</v>
@@ -2872,10 +2872,10 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0.8357142857142857</v>
+        <v>0.9357142857142857</v>
       </c>
       <c r="G51" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
         <v>1</v>
@@ -2884,7 +2884,7 @@
         <v>0.9285714285714286</v>
       </c>
       <c r="J51" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K51" t="n">
         <v>1</v>
@@ -2920,10 +2920,10 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0.8928571428571429</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G52" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
         <v>1</v>
@@ -2968,10 +2968,10 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="G53" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
         <v>1</v>
@@ -3016,10 +3016,10 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0.8428571428571429</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G54" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
         <v>1</v>
@@ -3028,7 +3028,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J54" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K54" t="n">
         <v>1</v>
@@ -3064,10 +3064,10 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0.7928571428571429</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G55" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
         <v>1</v>
@@ -3076,7 +3076,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J55" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K55" t="n">
         <v>1</v>
@@ -3112,10 +3112,10 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>0.8857142857142858</v>
+        <v>0.9357142857142857</v>
       </c>
       <c r="G56" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
         <v>1</v>
@@ -3160,7 +3160,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>0.9428571428571428</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3172,7 +3172,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J57" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K57" t="n">
         <v>1</v>
@@ -3256,7 +3256,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3268,7 +3268,7 @@
         <v>1</v>
       </c>
       <c r="J59" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K59" t="n">
         <v>1</v>
@@ -3304,7 +3304,7 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0.9428571428571428</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3316,7 +3316,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J60" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K60" t="n">
         <v>1</v>
@@ -3352,7 +3352,7 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0.9357142857142857</v>
+        <v>0.9857142857142858</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3364,7 +3364,7 @@
         <v>0.9285714285714286</v>
       </c>
       <c r="J61" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K61" t="n">
         <v>1</v>
@@ -3400,10 +3400,10 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>0.8928571428571429</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G62" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
         <v>1</v>
@@ -3412,7 +3412,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J62" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K62" t="n">
         <v>1</v>
@@ -3448,7 +3448,7 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>0.8785714285714284</v>
+        <v>0.9785714285714284</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3460,7 +3460,7 @@
         <v>0.8928571428571429</v>
       </c>
       <c r="J63" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K63" t="n">
         <v>1</v>
@@ -3496,10 +3496,10 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G64" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
         <v>1</v>
@@ -3640,10 +3640,10 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>0.9428571428571428</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G67" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
         <v>1</v>
@@ -3736,7 +3736,7 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>0.9428571428571428</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3748,7 +3748,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J69" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K69" t="n">
         <v>1</v>
@@ -3880,7 +3880,7 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>0.9428571428571428</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3892,7 +3892,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J72" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K72" t="n">
         <v>1</v>
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>0.8428571428571429</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G74" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
         <v>1</v>
@@ -3988,7 +3988,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J74" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K74" t="n">
         <v>0.75</v>
@@ -4024,10 +4024,10 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>0.8857142857142858</v>
+        <v>0.9357142857142857</v>
       </c>
       <c r="G75" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
         <v>1</v>
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.8714285714285716</v>
+        <v>0.9214285714285715</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4324,7 +4324,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="J81" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K81" t="n">
         <v>1</v>
@@ -4360,7 +4360,7 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4372,7 +4372,7 @@
         <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K82" t="n">
         <v>0.75</v>
@@ -4456,7 +4456,7 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4468,7 +4468,7 @@
         <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K84" t="n">
         <v>1</v>
@@ -4504,7 +4504,7 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>0.9928571428571429</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4516,7 +4516,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J85" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K85" t="n">
         <v>1</v>
@@ -4552,10 +4552,10 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="G86" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
         <v>1</v>
@@ -4600,10 +4600,10 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.9428571428571428</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G87" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
         <v>1</v>
@@ -4648,10 +4648,10 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>0.7857142857142858</v>
+        <v>0.9857142857142858</v>
       </c>
       <c r="G88" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
         <v>1</v>
@@ -4660,7 +4660,7 @@
         <v>0.9285714285714286</v>
       </c>
       <c r="J88" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="K88" t="n">
         <v>1</v>
@@ -4696,10 +4696,10 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>0.8857142857142858</v>
+        <v>0.9857142857142858</v>
       </c>
       <c r="G89" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
         <v>1</v>
@@ -4708,7 +4708,7 @@
         <v>0.9285714285714286</v>
       </c>
       <c r="J89" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K89" t="n">
         <v>1</v>
@@ -4792,7 +4792,7 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0.8857142857142858</v>
+        <v>0.9357142857142857</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4804,7 +4804,7 @@
         <v>0.9285714285714286</v>
       </c>
       <c r="J91" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K91" t="n">
         <v>1</v>
@@ -4888,7 +4888,7 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>0.8928571428571429</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4900,7 +4900,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J93" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K93" t="n">
         <v>1</v>
@@ -4936,10 +4936,10 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>0.8857142857142858</v>
+        <v>0.9857142857142858</v>
       </c>
       <c r="G94" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
         <v>1</v>
@@ -4948,7 +4948,7 @@
         <v>0.9285714285714286</v>
       </c>
       <c r="J94" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K94" t="n">
         <v>1</v>
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4996,7 +4996,7 @@
         <v>1</v>
       </c>
       <c r="J95" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K95" t="n">
         <v>1</v>
@@ -5080,7 +5080,7 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>0.8857142857142858</v>
+        <v>0.9857142857142858</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -5092,7 +5092,7 @@
         <v>0.9285714285714286</v>
       </c>
       <c r="J97" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K97" t="n">
         <v>1</v>
@@ -5128,7 +5128,7 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -5140,7 +5140,7 @@
         <v>1</v>
       </c>
       <c r="J98" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K98" t="n">
         <v>1</v>
@@ -5176,10 +5176,10 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="G99" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
         <v>1</v>
@@ -5188,7 +5188,7 @@
         <v>1</v>
       </c>
       <c r="J99" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K99" t="n">
         <v>1</v>
@@ -5227,16 +5227,16 @@
         <v>0.5542857142857143</v>
       </c>
       <c r="G100" t="n">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="H100" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>0.07142857142857142</v>
       </c>
       <c r="J100" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="K100" t="n">
         <v>0.5</v>
@@ -5416,7 +5416,7 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -5428,7 +5428,7 @@
         <v>1</v>
       </c>
       <c r="J104" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K104" t="n">
         <v>1</v>
@@ -5515,7 +5515,7 @@
         <v>0.9428571428571428</v>
       </c>
       <c r="G106" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H106" t="n">
         <v>1</v>
@@ -5524,7 +5524,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J106" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K106" t="n">
         <v>1</v>
@@ -5560,7 +5560,7 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>0.8928571428571429</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5572,7 +5572,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J107" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K107" t="n">
         <v>1</v>
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5620,7 +5620,7 @@
         <v>1</v>
       </c>
       <c r="J108" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K108" t="n">
         <v>1</v>
@@ -5656,7 +5656,7 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>0.8785714285714284</v>
+        <v>0.9285714285714285</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5668,7 +5668,7 @@
         <v>0.8928571428571429</v>
       </c>
       <c r="J109" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K109" t="n">
         <v>1</v>
@@ -5704,7 +5704,7 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>0.8928571428571429</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5716,7 +5716,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J110" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K110" t="n">
         <v>1</v>
@@ -5752,10 +5752,10 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>0.7785714285714286</v>
+        <v>0.9285714285714285</v>
       </c>
       <c r="G111" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H111" t="n">
         <v>1</v>
@@ -5764,7 +5764,7 @@
         <v>0.8928571428571429</v>
       </c>
       <c r="J111" t="n">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="K111" t="n">
         <v>1</v>
@@ -5800,10 +5800,10 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G112" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H112" t="n">
         <v>1</v>
@@ -5851,7 +5851,7 @@
         <v>0.9</v>
       </c>
       <c r="G113" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H113" t="n">
         <v>1</v>
@@ -5860,7 +5860,7 @@
         <v>1</v>
       </c>
       <c r="J113" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K113" t="n">
         <v>1</v>
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5908,7 +5908,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="K114" t="n">
         <v>1</v>
@@ -5992,10 +5992,10 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>0.8857142857142858</v>
+        <v>0.9357142857142857</v>
       </c>
       <c r="G116" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H116" t="n">
         <v>1</v>
@@ -6040,7 +6040,7 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -6052,7 +6052,7 @@
         <v>1</v>
       </c>
       <c r="J117" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K117" t="n">
         <v>1</v>
@@ -6232,7 +6232,7 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>0.9142857142857143</v>
+        <v>0.9642857142857142</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -6244,7 +6244,7 @@
         <v>0.8214285714285714</v>
       </c>
       <c r="J121" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K121" t="n">
         <v>1</v>
